--- a/DataExtraction/Input/CHG1/CHG-1_nodes_config.xlsx
+++ b/DataExtraction/Input/CHG1/CHG-1_nodes_config.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="47">
   <si>
     <t>Field_Name</t>
   </si>
@@ -58,6 +58,12 @@
     <t>charges_latest_id</t>
   </si>
   <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>DATE_INSTRUMENT</t>
+  </si>
+  <si>
     <t>property_type</t>
   </si>
   <si>
@@ -137,6 +143,15 @@
   </si>
   <si>
     <t>number_of_holder</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>ZMCA_NCA_CHG_2</t>
+  </si>
+  <si>
+    <t>RB_FORM_FOR</t>
   </si>
 </sst>
 </file>
@@ -146,7 +161,7 @@
   <numFmts count="1">
     <numFmt numFmtId="0" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -183,6 +198,11 @@
       <color indexed="8"/>
       <name val="Courier New"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="12"/>
+      <name val="Courier New"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -204,7 +224,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -259,6 +279,21 @@
     </border>
     <border>
       <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color indexed="8"/>
       </left>
       <right style="thin">
@@ -308,72 +343,84 @@
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="3" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -395,6 +442,7 @@
       <rgbColor rgb="ffffffff"/>
       <rgbColor rgb="ffaaaaaa"/>
       <rgbColor rgb="ffa5a5a5"/>
+      <rgbColor rgb="ff881280"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -593,17 +641,17 @@
         <a:solidFill>
           <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
-        <a:ln w="12700" cap="flat">
+        <a:ln w="25400" cap="flat">
           <a:solidFill>
             <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -630,10 +678,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -872,12 +920,12 @@
     <a:lnDef>
       <a:spPr>
         <a:noFill/>
-        <a:ln w="12700" cap="flat">
+        <a:ln w="25400" cap="flat">
           <a:solidFill>
             <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
@@ -1154,7 +1202,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1181,10 +1229,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -1426,7 +1474,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1506,7 +1554,7 @@
       <c r="H3" s="15"/>
     </row>
     <row r="4" ht="14" customHeight="1">
-      <c r="A4" t="s" s="11">
+      <c r="A4" t="s" s="16">
         <v>15</v>
       </c>
       <c r="B4" t="s" s="2">
@@ -1515,16 +1563,16 @@
       <c r="C4" t="s" s="2">
         <v>11</v>
       </c>
-      <c r="D4" t="s" s="12">
+      <c r="D4" t="s" s="17">
         <v>12</v>
       </c>
-      <c r="E4" t="s" s="12">
+      <c r="E4" t="s" s="18">
         <v>16</v>
       </c>
       <c r="F4" t="s" s="14">
         <v>8</v>
       </c>
-      <c r="G4" t="s" s="16">
+      <c r="G4" t="s" s="11">
         <v>15</v>
       </c>
       <c r="H4" s="15"/>
@@ -1548,7 +1596,7 @@
       <c r="F5" t="s" s="14">
         <v>8</v>
       </c>
-      <c r="G5" t="s" s="16">
+      <c r="G5" t="s" s="19">
         <v>17</v>
       </c>
       <c r="H5" s="15"/>
@@ -1572,7 +1620,7 @@
       <c r="F6" t="s" s="14">
         <v>8</v>
       </c>
-      <c r="G6" t="s" s="16">
+      <c r="G6" t="s" s="19">
         <v>19</v>
       </c>
       <c r="H6" s="15"/>
@@ -1590,18 +1638,18 @@
       <c r="D7" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E7" t="s" s="13">
+      <c r="E7" t="s" s="12">
         <v>22</v>
       </c>
       <c r="F7" t="s" s="14">
         <v>8</v>
       </c>
-      <c r="G7" t="s" s="16">
+      <c r="G7" t="s" s="19">
         <v>21</v>
       </c>
       <c r="H7" s="15"/>
     </row>
-    <row r="8" ht="15" customHeight="1">
+    <row r="8" ht="14" customHeight="1">
       <c r="A8" t="s" s="11">
         <v>23</v>
       </c>
@@ -1614,18 +1662,18 @@
       <c r="D8" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E8" t="s" s="17">
+      <c r="E8" t="s" s="13">
         <v>24</v>
       </c>
       <c r="F8" t="s" s="14">
         <v>8</v>
       </c>
-      <c r="G8" t="s" s="16">
+      <c r="G8" t="s" s="19">
         <v>23</v>
       </c>
       <c r="H8" s="15"/>
     </row>
-    <row r="9" ht="14" customHeight="1">
+    <row r="9" ht="15" customHeight="1">
       <c r="A9" t="s" s="11">
         <v>25</v>
       </c>
@@ -1638,20 +1686,20 @@
       <c r="D9" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E9" t="s" s="12">
-        <v>16</v>
+      <c r="E9" t="s" s="20">
+        <v>26</v>
       </c>
       <c r="F9" t="s" s="14">
         <v>8</v>
       </c>
-      <c r="G9" t="s" s="16">
+      <c r="G9" t="s" s="19">
         <v>25</v>
       </c>
       <c r="H9" s="15"/>
     </row>
     <row r="10" ht="14" customHeight="1">
       <c r="A10" t="s" s="11">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B10" t="s" s="2">
         <v>10</v>
@@ -1663,13 +1711,13 @@
         <v>12</v>
       </c>
       <c r="E10" t="s" s="12">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="F10" t="s" s="14">
         <v>8</v>
       </c>
-      <c r="G10" t="s" s="16">
-        <v>26</v>
+      <c r="G10" t="s" s="19">
+        <v>27</v>
       </c>
       <c r="H10" s="15"/>
     </row>
@@ -1692,7 +1740,7 @@
       <c r="F11" t="s" s="14">
         <v>8</v>
       </c>
-      <c r="G11" t="s" s="16">
+      <c r="G11" t="s" s="19">
         <v>28</v>
       </c>
       <c r="H11" s="15"/>
@@ -1710,13 +1758,13 @@
       <c r="D12" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E12" t="s" s="2">
+      <c r="E12" t="s" s="12">
         <v>31</v>
       </c>
       <c r="F12" t="s" s="14">
         <v>8</v>
       </c>
-      <c r="G12" t="s" s="16">
+      <c r="G12" t="s" s="19">
         <v>30</v>
       </c>
       <c r="H12" s="15"/>
@@ -1734,13 +1782,13 @@
       <c r="D13" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E13" t="s" s="12">
+      <c r="E13" t="s" s="2">
         <v>33</v>
       </c>
       <c r="F13" t="s" s="14">
         <v>8</v>
       </c>
-      <c r="G13" t="s" s="16">
+      <c r="G13" t="s" s="19">
         <v>32</v>
       </c>
       <c r="H13" s="15"/>
@@ -1759,19 +1807,19 @@
         <v>12</v>
       </c>
       <c r="E14" t="s" s="12">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F14" t="s" s="14">
         <v>8</v>
       </c>
-      <c r="G14" t="s" s="16">
+      <c r="G14" t="s" s="19">
         <v>34</v>
       </c>
       <c r="H14" s="15"/>
     </row>
-    <row r="15" ht="30" customHeight="1">
+    <row r="15" ht="14" customHeight="1">
       <c r="A15" t="s" s="11">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B15" t="s" s="2">
         <v>10</v>
@@ -1783,77 +1831,77 @@
         <v>12</v>
       </c>
       <c r="E15" t="s" s="12">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F15" t="s" s="14">
         <v>8</v>
       </c>
-      <c r="G15" t="s" s="11">
-        <v>35</v>
+      <c r="G15" t="s" s="19">
+        <v>36</v>
       </c>
       <c r="H15" s="15"/>
     </row>
-    <row r="16" ht="13.65" customHeight="1">
-      <c r="A16" t="s" s="16">
+    <row r="16" ht="30" customHeight="1">
+      <c r="A16" t="s" s="11">
         <v>37</v>
       </c>
-      <c r="B16" t="s" s="16">
-        <v>10</v>
-      </c>
-      <c r="C16" t="s" s="16">
-        <v>11</v>
-      </c>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
+      <c r="B16" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="C16" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="D16" t="s" s="12">
+        <v>12</v>
+      </c>
+      <c r="E16" t="s" s="12">
+        <v>38</v>
+      </c>
       <c r="F16" t="s" s="14">
         <v>8</v>
       </c>
-      <c r="G16" t="s" s="16">
+      <c r="G16" t="s" s="11">
         <v>37</v>
       </c>
-      <c r="H16" t="s" s="18">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="17" ht="13.55" customHeight="1">
-      <c r="A17" t="s" s="6">
+      <c r="H16" s="15"/>
+    </row>
+    <row r="17" ht="13.65" customHeight="1">
+      <c r="A17" t="s" s="19">
         <v>39</v>
       </c>
-      <c r="B17" s="19"/>
-      <c r="C17" s="20"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="21"/>
-    </row>
-    <row r="18" ht="14" customHeight="1">
-      <c r="A18" t="s" s="11">
-        <v>9</v>
-      </c>
-      <c r="B18" t="s" s="2">
-        <v>10</v>
-      </c>
-      <c r="C18" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D18" t="s" s="12">
-        <v>12</v>
-      </c>
-      <c r="E18" t="s" s="13">
-        <v>13</v>
-      </c>
-      <c r="F18" t="s" s="2">
+      <c r="B17" t="s" s="19">
+        <v>10</v>
+      </c>
+      <c r="C17" t="s" s="19">
+        <v>11</v>
+      </c>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" t="s" s="14">
+        <v>8</v>
+      </c>
+      <c r="G17" t="s" s="19">
         <v>39</v>
       </c>
-      <c r="G18" t="s" s="2">
+      <c r="H17" t="s" s="21">
         <v>40</v>
       </c>
-      <c r="H18" s="15"/>
+    </row>
+    <row r="18" ht="13.55" customHeight="1">
+      <c r="A18" t="s" s="6">
+        <v>41</v>
+      </c>
+      <c r="B18" s="22"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="24"/>
     </row>
     <row r="19" ht="14" customHeight="1">
       <c r="A19" t="s" s="11">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="B19" t="s" s="2">
         <v>10</v>
@@ -1864,44 +1912,44 @@
       <c r="D19" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E19" t="s" s="12">
-        <v>18</v>
+      <c r="E19" t="s" s="13">
+        <v>13</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G19" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="H19" s="15"/>
+    </row>
+    <row r="20" ht="14" customHeight="1">
+      <c r="A20" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="B20" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="C20" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="D20" t="s" s="17">
+        <v>12</v>
+      </c>
+      <c r="E20" t="s" s="18">
+        <v>16</v>
+      </c>
+      <c r="F20" t="s" s="2">
         <v>41</v>
-      </c>
-      <c r="H19" s="15"/>
-    </row>
-    <row r="20" ht="14" customHeight="1">
-      <c r="A20" t="s" s="11">
-        <v>15</v>
-      </c>
-      <c r="B20" t="s" s="2">
-        <v>10</v>
-      </c>
-      <c r="C20" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D20" t="s" s="12">
-        <v>12</v>
-      </c>
-      <c r="E20" t="s" s="12">
-        <v>16</v>
-      </c>
-      <c r="F20" t="s" s="2">
-        <v>39</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>15</v>
       </c>
       <c r="H20" s="15"/>
     </row>
-    <row r="21" ht="13.65" customHeight="1">
+    <row r="21" ht="14" customHeight="1">
       <c r="A21" t="s" s="11">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="B21" t="s" s="2">
         <v>10</v>
@@ -1909,21 +1957,23 @@
       <c r="C21" t="s" s="2">
         <v>11</v>
       </c>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
+      <c r="D21" t="s" s="12">
+        <v>12</v>
+      </c>
+      <c r="E21" t="s" s="12">
+        <v>20</v>
+      </c>
       <c r="F21" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="G21" t="s" s="16">
-        <v>37</v>
-      </c>
-      <c r="H21" t="s" s="18">
-        <v>38</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="G21" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="H21" s="15"/>
     </row>
     <row r="22" ht="14" customHeight="1">
       <c r="A22" t="s" s="11">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B22" t="s" s="2">
         <v>10</v>
@@ -1935,15 +1985,85 @@
         <v>12</v>
       </c>
       <c r="E22" t="s" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F22" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="G22" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="H22" s="15"/>
+    </row>
+    <row r="23" ht="13.65" customHeight="1">
+      <c r="A23" t="s" s="11">
         <v>39</v>
       </c>
-      <c r="G22" t="s" s="2">
-        <v>25</v>
-      </c>
-      <c r="H22" s="15"/>
+      <c r="B23" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="C23" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="G23" t="s" s="19">
+        <v>39</v>
+      </c>
+      <c r="H23" t="s" s="21">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" ht="14" customHeight="1">
+      <c r="A24" t="s" s="11">
+        <v>27</v>
+      </c>
+      <c r="B24" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="C24" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="D24" t="s" s="12">
+        <v>12</v>
+      </c>
+      <c r="E24" t="s" s="12">
+        <v>18</v>
+      </c>
+      <c r="F24" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="G24" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="H24" s="15"/>
+    </row>
+    <row r="25" ht="14" customHeight="1">
+      <c r="A25" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="B25" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="C25" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="D25" t="s" s="17">
+        <v>45</v>
+      </c>
+      <c r="E25" t="s" s="25">
+        <v>46</v>
+      </c>
+      <c r="F25" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="G25" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H25" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
